--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rspo3-Lrp6.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H2">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I2">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J2">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N2">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P2">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q2">
-        <v>0.747785277644</v>
+        <v>1.506479840401667</v>
       </c>
       <c r="R2">
-        <v>6.730067498796001</v>
+        <v>13.558318563615</v>
       </c>
       <c r="S2">
-        <v>0.002257168148903986</v>
+        <v>0.003671077927584688</v>
       </c>
       <c r="T2">
-        <v>0.002257168148903986</v>
+        <v>0.003671077927584687</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H3">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J3">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>115.631084</v>
       </c>
       <c r="O3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P3">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q3">
-        <v>2.673788946924889</v>
+        <v>4.021096641896444</v>
       </c>
       <c r="R3">
-        <v>24.064100522324</v>
+        <v>36.189869777068</v>
       </c>
       <c r="S3">
-        <v>0.008070754303835836</v>
+        <v>0.009798842792888009</v>
       </c>
       <c r="T3">
-        <v>0.008070754303835836</v>
+        <v>0.009798842792888007</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H4">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I4">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J4">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N4">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P4">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q4">
-        <v>1.362932165610223</v>
+        <v>2.290393019324667</v>
       </c>
       <c r="R4">
-        <v>12.266389490492</v>
+        <v>20.613537173922</v>
       </c>
       <c r="S4">
-        <v>0.004113971169671383</v>
+        <v>0.005581363276985497</v>
       </c>
       <c r="T4">
-        <v>0.004113971169671382</v>
+        <v>0.005581363276985496</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.06937033333333334</v>
+        <v>0.1043256666666667</v>
       </c>
       <c r="H5">
-        <v>0.208111</v>
+        <v>0.312977</v>
       </c>
       <c r="I5">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="J5">
-        <v>0.01708561286819356</v>
+        <v>0.02547563162231953</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N5">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P5">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q5">
-        <v>0.875847167691111</v>
+        <v>2.636323819732555</v>
       </c>
       <c r="R5">
-        <v>7.882624509219999</v>
+        <v>23.726914377593</v>
       </c>
       <c r="S5">
-        <v>0.002643719245782354</v>
+        <v>0.00642434762486134</v>
       </c>
       <c r="T5">
-        <v>0.002643719245782354</v>
+        <v>0.00642434762486134</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.972371</v>
       </c>
       <c r="I6">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J6">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.779612</v>
+        <v>14.440165</v>
       </c>
       <c r="N6">
-        <v>32.338836</v>
+        <v>43.320495</v>
       </c>
       <c r="O6">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="P6">
-        <v>0.1321092878737708</v>
+        <v>0.1441015470002482</v>
       </c>
       <c r="Q6">
-        <v>43.019171366684</v>
+        <v>57.62767089373833</v>
       </c>
       <c r="R6">
-        <v>387.172542300156</v>
+        <v>518.649038043645</v>
       </c>
       <c r="S6">
-        <v>0.1298521197248668</v>
+        <v>0.1404304690726635</v>
       </c>
       <c r="T6">
-        <v>0.1298521197248668</v>
+        <v>0.1404304690726635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.972371</v>
       </c>
       <c r="I7">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J7">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>115.631084</v>
       </c>
       <c r="O7">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098663</v>
       </c>
       <c r="P7">
-        <v>0.4723713668393066</v>
+        <v>0.3846359116098662</v>
       </c>
       <c r="Q7">
         <v>153.8198040866849</v>
@@ -883,10 +883,10 @@
         <v>1384.378236780164</v>
       </c>
       <c r="S7">
-        <v>0.4643006125354708</v>
+        <v>0.3748370688169783</v>
       </c>
       <c r="T7">
-        <v>0.4643006125354707</v>
+        <v>0.3748370688169782</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.972371</v>
       </c>
       <c r="I8">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J8">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>19.64719066666667</v>
+        <v>21.954262</v>
       </c>
       <c r="N8">
-        <v>58.94157200000001</v>
+        <v>65.862786</v>
       </c>
       <c r="O8">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385157</v>
       </c>
       <c r="P8">
-        <v>0.2407856950411137</v>
+        <v>0.2190863551385156</v>
       </c>
       <c r="Q8">
-        <v>78.40781858969024</v>
+        <v>87.61485656506733</v>
       </c>
       <c r="R8">
-        <v>705.6703673072121</v>
+        <v>788.5337090856059</v>
       </c>
       <c r="S8">
-        <v>0.2366717238714424</v>
+        <v>0.2135049918615302</v>
       </c>
       <c r="T8">
-        <v>0.2366717238714423</v>
+        <v>0.2135049918615301</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.972371</v>
       </c>
       <c r="I9">
-        <v>0.9829143871318065</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="J9">
-        <v>0.9829143871318063</v>
+        <v>0.9745243683776804</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.62567333333333</v>
+        <v>25.27013633333333</v>
       </c>
       <c r="N9">
-        <v>37.87701999999999</v>
+        <v>75.81040899999999</v>
       </c>
       <c r="O9">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="P9">
-        <v>0.1547336502458089</v>
+        <v>0.2521761862513699</v>
       </c>
       <c r="Q9">
-        <v>50.38641509049111</v>
+        <v>100.8478158010821</v>
       </c>
       <c r="R9">
-        <v>453.47773581442</v>
+        <v>907.6303422097388</v>
       </c>
       <c r="S9">
-        <v>0.1520899310000265</v>
+        <v>0.2457518386265086</v>
       </c>
       <c r="T9">
-        <v>0.1520899310000265</v>
+        <v>0.2457518386265086</v>
       </c>
     </row>
   </sheetData>
